--- a/test-ext-r5/ig/CodeSystem-eclaire-regulation-code-code-system.xlsx
+++ b/test-ext-r5/ig/CodeSystem-eclaire-regulation-code-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T15:02:16+00:00</t>
+    <t>2025-07-25T15:53:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-ext-r5/ig/CodeSystem-eclaire-regulation-code-code-system.xlsx
+++ b/test-ext-r5/ig/CodeSystem-eclaire-regulation-code-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T15:53:06+00:00</t>
+    <t>2025-08-01T16:24:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
